--- a/va_facility_data_2025-02-20/Harlem VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Harlem%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Harlem VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Harlem%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf4650fd332234ca0a141234986c72562"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0100b6d6e60a4a8aa0ecfcd305ea4304"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R182953cb01664953a23b85d1487dd330"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb365fe3a26ec41619198ba14c0c71467"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R734918e7427144059602b94a291a7aff"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R60a20880695c472c923d15d6ab890b1f"/>
   </x:sheets>
 </x:workbook>
 </file>
